--- a/cypress/fixtures/BrickFile.xlsx
+++ b/cypress/fixtures/BrickFile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaitanya.dhoddi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riya1.srivastava/Desktop/cypressUVP/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28C430F-BE0A-6F48-B685-D35C2D3D0FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FAA5E7-072F-B949-9E00-9A3ABE8CB072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="6920" windowWidth="18800" windowHeight="9980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Segment</t>
   </si>
@@ -67,43 +67,7 @@
     <t>Bottomwear</t>
   </si>
   <si>
-    <t>Night &amp; Lounge Wear</t>
-  </si>
-  <si>
-    <t>Sleepwear</t>
-  </si>
-  <si>
-    <t>Pyjamas &amp; Shorts</t>
-  </si>
-  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Sets</t>
-  </si>
-  <si>
-    <t>Nightshirts &amp; Nighties</t>
-  </si>
-  <si>
-    <t>Tops &amp; Tshirts</t>
-  </si>
-  <si>
-    <t>Pyjamas</t>
-  </si>
-  <si>
-    <t>Night&amp;LoungeWearSets</t>
-  </si>
-  <si>
-    <t>Cloth Sets</t>
-  </si>
-  <si>
-    <t>Co-ord Sets</t>
-  </si>
-  <si>
-    <t>Knit Tops</t>
-  </si>
-  <si>
-    <t>Dresses</t>
   </si>
   <si>
     <t>Lingerie &amp; Innerwear</t>
@@ -487,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -576,20 +540,20 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -599,228 +563,40 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cypress/fixtures/BrickFile.xlsx
+++ b/cypress/fixtures/BrickFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riya1.srivastava/Desktop/cypressUVP/cypress/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FAA5E7-072F-B949-9E00-9A3ABE8CB072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE32D87-E567-AB46-9893-6A5A16DD952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -37,49 +37,49 @@
     <t>Brick</t>
   </si>
   <si>
+    <t>Enrichment</t>
+  </si>
+  <si>
+    <t>Shein Fast Fashion</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Western Wear</t>
+  </si>
+  <si>
+    <t>Tops</t>
+  </si>
+  <si>
+    <t>Denim</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Jeans</t>
+  </si>
+  <si>
+    <t>Bottomwear</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Lingerie &amp; Innerwear</t>
+  </si>
+  <si>
+    <t>Innerwear</t>
+  </si>
+  <si>
+    <t>Bras</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
     <t>BrickName</t>
-  </si>
-  <si>
-    <t>Enrichment</t>
-  </si>
-  <si>
-    <t>Shein Fast Fashion</t>
-  </si>
-  <si>
-    <t>Women</t>
-  </si>
-  <si>
-    <t>Western Wear</t>
-  </si>
-  <si>
-    <t>Tops</t>
-  </si>
-  <si>
-    <t>Denim</t>
-  </si>
-  <si>
-    <t>Men</t>
-  </si>
-  <si>
-    <t>Jeans</t>
-  </si>
-  <si>
-    <t>Bottomwear</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Lingerie &amp; Innerwear</t>
-  </si>
-  <si>
-    <t>Innerwear</t>
-  </si>
-  <si>
-    <t>Bras</t>
-  </si>
-  <si>
-    <t>Active</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -481,102 +481,102 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
